--- a/Proof_Of_Concept_DataSet/combined_cvs_files.xlsx
+++ b/Proof_Of_Concept_DataSet/combined_cvs_files.xlsx
@@ -8,23 +8,58 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fisch\Documents\VS Code\Abigail_ScienceFair_2025-26\Proof_Of_Concept_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C31DF36-DC54-470E-B8C7-F9A47B6B95F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2D4361-B2EF-479E-A7F0-7BB3642464D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-3780" windowWidth="44092" windowHeight="18000" activeTab="1" xr2:uid="{2D1BFED1-DE34-4A07-8A16-95C976445D51}"/>
+    <workbookView xWindow="32811" yWindow="-3780" windowWidth="44092" windowHeight="18000" activeTab="3" xr2:uid="{2D1BFED1-DE34-4A07-8A16-95C976445D51}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_CSV_Files" sheetId="1" r:id="rId1"/>
     <sheet name="Columns" sheetId="2" r:id="rId2"/>
+    <sheet name="calc" sheetId="3" r:id="rId3"/>
+    <sheet name="graph" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Combined_CSV_Files!$A$1:$S$901</definedName>
+    <definedName name="d_prob">Combined_CSV_Files!$G$2:$G$901</definedName>
+    <definedName name="d_t_d">Combined_CSV_Files!$F$2:$F$901</definedName>
+    <definedName name="data">Combined_CSV_Files!$A$1:$S$901</definedName>
+    <definedName name="days_r">Combined_CSV_Files!$D$2:$D$901</definedName>
+    <definedName name="dec">Combined_CSV_Files!$Q$2:$Q$901</definedName>
+    <definedName name="dm">Combined_CSV_Files!$E$2:$E$901</definedName>
+    <definedName name="fps">Combined_CSV_Files!$B$2:$B$901</definedName>
+    <definedName name="frames">Combined_CSV_Files!$R$2:$R$901</definedName>
+    <definedName name="h_i_t">Combined_CSV_Files!$H$2:$H$901</definedName>
+    <definedName name="i_rad">Combined_CSV_Files!$K$2:$K$901</definedName>
+    <definedName name="imm">Combined_CSV_Files!$O$2:$O$901</definedName>
+    <definedName name="inf_p">Combined_CSV_Files!$J$2:$J$901</definedName>
+    <definedName name="n_inf">Combined_CSV_Files!$N$2:$N$901</definedName>
+    <definedName name="p_rad">Combined_CSV_Files!$C$2:$C$901</definedName>
+    <definedName name="pop">Combined_CSV_Files!$L$2:$L$901</definedName>
+    <definedName name="row">Combined_CSV_Files!$A$2:$A$901</definedName>
+    <definedName name="seed">Combined_CSV_Files!$S$2:$S$901</definedName>
+    <definedName name="sus">Combined_CSV_Files!$P$2:$P$901</definedName>
+    <definedName name="t_inf">Combined_CSV_Files!$M$2:$M$901</definedName>
+    <definedName name="vac_p">Combined_CSV_Files!$I$2:$I$901</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>fps</t>
   </si>
@@ -148,12 +183,72 @@
   <si>
     <t>Number_Of_Frames (at end of trial)</t>
   </si>
+  <si>
+    <t>= COUNTIFS(frames,"&gt;400",frames,"&lt;900")</t>
+  </si>
+  <si>
+    <t>= COUNTIF(frames,"&gt;400")</t>
+  </si>
+  <si>
+    <t>= COUNT(frames)</t>
+  </si>
+  <si>
+    <t>% Vaccinated</t>
+  </si>
+  <si>
+    <t>% Infected</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t_inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Average Total Infected</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> = COUNTIFS(frames,"&gt;400",frames,"&lt;900", vac_p,"= 0.4")</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>frames &gt;400</t>
+  </si>
+  <si>
+    <t>frames &gt;400 &amp; frames &lt;900</t>
+  </si>
+  <si>
+    <t>frames &gt;400 &amp; frames &lt;900 &amp; vac_p = 0.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +416,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -635,7 +736,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -678,8 +779,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,8 +801,47 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -740,6 +881,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -755,6 +897,950 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Infected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>graph!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>graph!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.25664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19274000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10512000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.324E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.73E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1920-41F5-99C9-33114F6A3341}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="657911151"/>
+        <c:axId val="657901071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="657911151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657901071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="657901071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657911151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>364671</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>351064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C825DE8F-BF98-ECEF-62F8-4622AE95AC3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1074,10 +2160,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A76D7C-C1BB-4F61-851F-FB4D1D6146CC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S901"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M214" sqref="M214:M301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1163,7 +2251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1222,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1281,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1340,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1399,7 +2487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1458,7 +2546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1517,7 +2605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1576,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1635,7 +2723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1694,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1753,7 +2841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1812,7 +2900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1871,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1930,7 +3018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1989,7 +3077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2048,7 +3136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2107,7 +3195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2166,7 +3254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2225,7 +3313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2284,7 +3372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2343,7 +3431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2402,7 +3490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2461,7 +3549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2520,7 +3608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2579,7 +3667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2638,7 +3726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2697,7 +3785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2756,7 +3844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2815,7 +3903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2874,7 +3962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2933,7 +4021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2992,7 +4080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3051,7 +4139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3110,7 +4198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3169,7 +4257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3228,7 +4316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3287,7 +4375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3346,7 +4434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3405,7 +4493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3464,7 +4552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3523,7 +4611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3582,7 +4670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3641,7 +4729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3700,7 +4788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3759,7 +4847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3818,7 +4906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3877,7 +4965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3936,7 +5024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3995,7 +5083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4054,7 +5142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4113,7 +5201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4172,7 +5260,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4231,7 +5319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4290,7 +5378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4349,7 +5437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4408,7 +5496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4467,7 +5555,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4526,7 +5614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4585,7 +5673,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4644,7 +5732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4703,7 +5791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4762,7 +5850,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4821,7 +5909,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4880,7 +5968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4939,7 +6027,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4998,7 +6086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5057,7 +6145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5116,7 +6204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5175,7 +6263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5234,7 +6322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5293,7 +6381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5352,7 +6440,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5411,7 +6499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5470,7 +6558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5529,7 +6617,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5588,7 +6676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5647,7 +6735,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5706,7 +6794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5765,7 +6853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5824,7 +6912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5883,7 +6971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5942,7 +7030,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6001,7 +7089,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6060,7 +7148,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6119,7 +7207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6178,7 +7266,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6237,7 +7325,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6296,7 +7384,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -6355,7 +7443,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -6414,7 +7502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -6473,7 +7561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -6532,7 +7620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6591,7 +7679,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6650,7 +7738,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -6709,7 +7797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -6768,7 +7856,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6827,7 +7915,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6886,7 +7974,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6945,7 +8033,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7004,7 +8092,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7063,7 +8151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7122,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7181,7 +8269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7240,7 +8328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7299,7 +8387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7358,7 +8446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7417,7 +8505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7476,7 +8564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7535,7 +8623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7594,7 +8682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7653,7 +8741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7712,7 +8800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7771,7 +8859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7830,7 +8918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7889,7 +8977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7948,7 +9036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -8007,7 +9095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -8066,7 +9154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -8125,7 +9213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -8184,7 +9272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -8243,7 +9331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -8302,7 +9390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -8361,7 +9449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -8420,7 +9508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -8479,7 +9567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -8538,7 +9626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -8597,7 +9685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -8656,7 +9744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -8715,7 +9803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -8774,7 +9862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -8833,7 +9921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -8892,7 +9980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -8951,7 +10039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -9010,7 +10098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -9069,7 +10157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -9128,7 +10216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -9187,7 +10275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -9246,7 +10334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -9305,7 +10393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -9364,7 +10452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9423,7 +10511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -9482,7 +10570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -9541,7 +10629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -9600,7 +10688,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -9659,7 +10747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -9718,7 +10806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -9777,7 +10865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -9836,7 +10924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -9895,7 +10983,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -9954,7 +11042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -10013,7 +11101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -10072,7 +11160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -10131,7 +11219,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -10190,7 +11278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -10249,7 +11337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -10308,7 +11396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -10367,7 +11455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -10426,7 +11514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -10485,7 +11573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -10544,7 +11632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -10603,7 +11691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -10662,7 +11750,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -10721,7 +11809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -10780,7 +11868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -10839,7 +11927,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -10898,7 +11986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -10957,7 +12045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -11016,7 +12104,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -11075,7 +12163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -11134,7 +12222,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -11193,7 +12281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -11252,7 +12340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -11311,7 +12399,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -11370,7 +12458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -11429,7 +12517,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -11488,7 +12576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -11547,7 +12635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -11606,7 +12694,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -11665,7 +12753,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -11724,7 +12812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -11783,7 +12871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -11842,7 +12930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -11901,7 +12989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -11960,7 +13048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -12019,7 +13107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -12078,7 +13166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -12137,7 +13225,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -12196,7 +13284,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -12255,7 +13343,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -12314,7 +13402,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -12373,7 +13461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -12432,7 +13520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -12491,7 +13579,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -12550,7 +13638,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -12609,7 +13697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -12668,7 +13756,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -12727,7 +13815,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -12786,7 +13874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -12845,7 +13933,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -12904,7 +13992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -18863,7 +19951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -18922,7 +20010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -18981,7 +20069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -19040,7 +20128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -19099,7 +20187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -19158,7 +20246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -19217,7 +20305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -19276,7 +20364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -19335,7 +20423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -19394,7 +20482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -19453,7 +20541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -19512,7 +20600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -19571,7 +20659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -19630,7 +20718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -19689,7 +20777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -19748,7 +20836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -19807,7 +20895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -19866,7 +20954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -19925,7 +21013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -19984,7 +21072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -20043,7 +21131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -20102,7 +21190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -20161,7 +21249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -20220,7 +21308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -20279,7 +21367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -20338,7 +21426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -20397,7 +21485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -20456,7 +21544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -20515,7 +21603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -20574,7 +21662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -20633,7 +21721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -20692,7 +21780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -20751,7 +21839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -20810,7 +21898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -20869,7 +21957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -20928,7 +22016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -20987,7 +22075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -21046,7 +22134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -21105,7 +22193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -21164,7 +22252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -21223,7 +22311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -21282,7 +22370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -21341,7 +22429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -21400,7 +22488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -21459,7 +22547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -21518,7 +22606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -21577,7 +22665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -21636,7 +22724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -21695,7 +22783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -21754,7 +22842,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -21813,7 +22901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -21872,7 +22960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -21931,7 +23019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -21990,7 +23078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -22049,7 +23137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -22108,7 +23196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -22167,7 +23255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -22226,7 +23314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -22285,7 +23373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -22344,7 +23432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -22403,7 +23491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -22462,7 +23550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -22521,7 +23609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -22580,7 +23668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -22639,7 +23727,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -22698,7 +23786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -22757,7 +23845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -22816,7 +23904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -22875,7 +23963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -22934,7 +24022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -22993,7 +24081,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -23052,7 +24140,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -23111,7 +24199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -23170,7 +24258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -23229,7 +24317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -23288,7 +24376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -23347,7 +24435,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -23406,7 +24494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -23465,7 +24553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -23524,7 +24612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -23583,7 +24671,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -23642,7 +24730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -23701,7 +24789,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -23760,7 +24848,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -23819,7 +24907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -23878,7 +24966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -23937,7 +25025,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -23996,7 +25084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -24055,7 +25143,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -24114,7 +25202,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -24173,7 +25261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -24232,7 +25320,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -24291,7 +25379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -24350,7 +25438,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -24409,7 +25497,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -24468,7 +25556,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -24527,7 +25615,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -24586,7 +25674,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -24645,7 +25733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -24704,7 +25792,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -24763,7 +25851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -24822,7 +25910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -24881,7 +25969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -24940,7 +26028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -24999,7 +26087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -25058,7 +26146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -25117,7 +26205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -25176,7 +26264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -25235,7 +26323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -25294,7 +26382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -25353,7 +26441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -25412,7 +26500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -25471,7 +26559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -25530,7 +26618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -25589,7 +26677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -25648,7 +26736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -25707,7 +26795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -25766,7 +26854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -25825,7 +26913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -25884,7 +26972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -25943,7 +27031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -26002,7 +27090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -26061,7 +27149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -26120,7 +27208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -26179,7 +27267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -26238,7 +27326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -26297,7 +27385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -26356,7 +27444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -26415,7 +27503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -26474,7 +27562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -26533,7 +27621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -26592,7 +27680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -26651,7 +27739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -26710,7 +27798,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -26769,7 +27857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -26828,7 +27916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -26887,7 +27975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -26946,7 +28034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -27005,7 +28093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -27064,7 +28152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -27123,7 +28211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -27182,7 +28270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -27241,7 +28329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -27300,7 +28388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -27359,7 +28447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -27418,7 +28506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -27477,7 +28565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -27536,7 +28624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -27595,7 +28683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -27654,7 +28742,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -27713,7 +28801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -27772,7 +28860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -27831,7 +28919,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -27890,7 +28978,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -27949,7 +29037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -28008,7 +29096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -28067,7 +29155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -28126,7 +29214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -28185,7 +29273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -28244,7 +29332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -28303,7 +29391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -28362,7 +29450,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -28421,7 +29509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -28480,7 +29568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -28539,7 +29627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -28598,7 +29686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -28657,7 +29745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -28716,7 +29804,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -28775,7 +29863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -28834,7 +29922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -28893,7 +29981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -28952,7 +30040,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -29011,7 +30099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -29070,7 +30158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -29129,7 +30217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -29188,7 +30276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -29247,7 +30335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -29306,7 +30394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -29365,7 +30453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -29424,7 +30512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -29483,7 +30571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -29542,7 +30630,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -29601,7 +30689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -29660,7 +30748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -29719,7 +30807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -29778,7 +30866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -29837,7 +30925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -29896,7 +30984,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -29955,7 +31043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -30014,7 +31102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -30073,7 +31161,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -30132,7 +31220,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -30191,7 +31279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -30250,7 +31338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -30309,7 +31397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -30368,7 +31456,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -30427,7 +31515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -30486,7 +31574,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -30545,7 +31633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -30604,7 +31692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -30663,7 +31751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -30722,7 +31810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -30781,7 +31869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -30840,7 +31928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -30899,7 +31987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -30958,7 +32046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -31017,7 +32105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -31076,7 +32164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -31135,7 +32223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -31194,7 +32282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -31253,7 +32341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -31312,7 +32400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -31371,7 +32459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -31430,7 +32518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -31489,7 +32577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -31548,7 +32636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -31607,7 +32695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -31666,7 +32754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -31725,7 +32813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -31784,7 +32872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -31843,7 +32931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -31902,7 +32990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -31961,7 +33049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -32020,7 +33108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -32079,7 +33167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -32138,7 +33226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -32197,7 +33285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -32256,7 +33344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -32315,7 +33403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -32374,7 +33462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -32433,7 +33521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -32492,7 +33580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -32551,7 +33639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -32610,7 +33698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -32669,7 +33757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="536" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -32728,7 +33816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -32787,7 +33875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -32846,7 +33934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -32905,7 +33993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -32964,7 +34052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -33023,7 +34111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -33082,7 +34170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="543" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -33141,7 +34229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -33200,7 +34288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -33259,7 +34347,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="546" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -33318,7 +34406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -33377,7 +34465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -33436,7 +34524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -33495,7 +34583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -33554,7 +34642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -33613,7 +34701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -33672,7 +34760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -33731,7 +34819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -33790,7 +34878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -33849,7 +34937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -33908,7 +34996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -33967,7 +35055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -34026,7 +35114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -34085,7 +35173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -34144,7 +35232,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -34203,7 +35291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -34262,7 +35350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -34321,7 +35409,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -34380,7 +35468,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -34439,7 +35527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -34498,7 +35586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="567" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -34557,7 +35645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -34616,7 +35704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -34675,7 +35763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -34734,7 +35822,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -34793,7 +35881,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="572" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -34852,7 +35940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="573" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -34911,7 +35999,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="574" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -34970,7 +36058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="575" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -35029,7 +36117,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="576" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -35088,7 +36176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="577" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -35147,7 +36235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="578" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -35206,7 +36294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="579" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -35265,7 +36353,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="580" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -35324,7 +36412,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="581" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -35383,7 +36471,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="582" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -35442,7 +36530,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="583" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -35501,7 +36589,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="584" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -35560,7 +36648,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="585" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -35619,7 +36707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="586" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -35678,7 +36766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="587" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -35737,7 +36825,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="588" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -35796,7 +36884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="589" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -35855,7 +36943,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="590" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -35914,7 +37002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="591" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -35973,7 +37061,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="592" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -36032,7 +37120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -36091,7 +37179,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -36150,7 +37238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -36209,7 +37297,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -36268,7 +37356,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -36327,7 +37415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -36386,7 +37474,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -36445,7 +37533,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -36504,7 +37592,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -36563,7 +37651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -36622,7 +37710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -36681,7 +37769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -36740,7 +37828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -36799,7 +37887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -36858,7 +37946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="607" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -36917,7 +38005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -36976,7 +38064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="609" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -37035,7 +38123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="610" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -37094,7 +38182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="611" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -37153,7 +38241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="612" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -37212,7 +38300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="613" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -37271,7 +38359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="614" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -37330,7 +38418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="615" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -37389,7 +38477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="616" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -37448,7 +38536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="617" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -37507,7 +38595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="618" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -37566,7 +38654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="619" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -37625,7 +38713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="620" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -37684,7 +38772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="621" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -37743,7 +38831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="622" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -37802,7 +38890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="623" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -37861,7 +38949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="624" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -37920,7 +39008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="625" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -37979,7 +39067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="626" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -38038,7 +39126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="627" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -38097,7 +39185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="628" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -38156,7 +39244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="629" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -38215,7 +39303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="630" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -38274,7 +39362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="631" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -38333,7 +39421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="632" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -38392,7 +39480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="633" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -38451,7 +39539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="634" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -38510,7 +39598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="635" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -38569,7 +39657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="636" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -38628,7 +39716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="637" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -38687,7 +39775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="638" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -38746,7 +39834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="639" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -38805,7 +39893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="640" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -38864,7 +39952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="641" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -38923,7 +40011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="642" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -38982,7 +40070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="643" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -39041,7 +40129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="644" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -39100,7 +40188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="645" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -39159,7 +40247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="646" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -39218,7 +40306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="647" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -39277,7 +40365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="648" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -39336,7 +40424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="649" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -39395,7 +40483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="650" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -39454,7 +40542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="651" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -39513,7 +40601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="652" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -39572,7 +40660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="653" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -39631,7 +40719,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="654" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -39690,7 +40778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="655" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -39749,7 +40837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="656" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -39808,7 +40896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="657" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -39867,7 +40955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="658" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -39926,7 +41014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="659" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -39985,7 +41073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="660" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -40044,7 +41132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="661" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -40103,7 +41191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="662" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -40162,7 +41250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="663" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -40221,7 +41309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="664" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -40280,7 +41368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="665" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -40339,7 +41427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="666" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -40398,7 +41486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="667" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -40457,7 +41545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="668" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -40516,7 +41604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="669" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -40575,7 +41663,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="670" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -40634,7 +41722,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="671" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -40693,7 +41781,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="672" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -40752,7 +41840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="673" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -40811,7 +41899,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="674" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -40870,7 +41958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="675" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -40929,7 +42017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="676" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -40988,7 +42076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="677" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -41047,7 +42135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="678" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -41106,7 +42194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="679" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -41165,7 +42253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="680" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -41224,7 +42312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="681" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -41283,7 +42371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="682" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -41342,7 +42430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="683" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -41401,7 +42489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="684" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -41460,7 +42548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="685" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -41519,7 +42607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="686" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -41578,7 +42666,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="687" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -41637,7 +42725,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="688" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -41696,7 +42784,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="689" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -41755,7 +42843,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="690" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -41814,7 +42902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="691" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -41873,7 +42961,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="692" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -41932,7 +43020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="693" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -41991,7 +43079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="694" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -42050,7 +43138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="695" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -42109,7 +43197,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="696" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -42168,7 +43256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="697" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -42227,7 +43315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="698" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -42286,7 +43374,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="699" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -42345,7 +43433,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="700" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -42404,7 +43492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="701" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -42463,7 +43551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="702" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -42522,7 +43610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="703" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -42581,7 +43669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="704" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -42640,7 +43728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="705" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -42699,7 +43787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="706" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -42758,7 +43846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="707" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -42817,7 +43905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="708" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -42876,7 +43964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="709" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -42935,7 +44023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -42994,7 +44082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="711" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -43053,7 +44141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="712" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -43112,7 +44200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="713" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -43171,7 +44259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="714" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -43230,7 +44318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="715" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -43289,7 +44377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="716" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -43348,7 +44436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="717" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -43407,7 +44495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="718" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -43466,7 +44554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="719" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -43525,7 +44613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="720" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -43584,7 +44672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="721" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -43643,7 +44731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="722" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -43702,7 +44790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="723" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -43761,7 +44849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="724" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -43820,7 +44908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="725" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -43879,7 +44967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="726" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -43938,7 +45026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="727" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -43997,7 +45085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="728" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -44056,7 +45144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="729" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -44115,7 +45203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="730" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -44174,7 +45262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="731" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -44233,7 +45321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="732" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -44292,7 +45380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="733" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -44351,7 +45439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="734" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -44410,7 +45498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="735" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -44469,7 +45557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="736" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -44528,7 +45616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="737" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -44587,7 +45675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="738" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -44646,7 +45734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="739" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -44705,7 +45793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="740" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -44764,7 +45852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="741" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -44823,7 +45911,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="742" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -44882,7 +45970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="743" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -44941,7 +46029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="744" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -45000,7 +46088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="745" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -45059,7 +46147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="746" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -45118,7 +46206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="747" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -45177,7 +46265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="748" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -45236,7 +46324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="749" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -45295,7 +46383,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="750" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -45354,7 +46442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="751" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -45413,7 +46501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="752" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -45472,7 +46560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="753" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -45531,7 +46619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="754" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -45590,7 +46678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="755" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -45649,7 +46737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="756" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -45708,7 +46796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="757" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -45767,7 +46855,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="758" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -45826,7 +46914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="759" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -45885,7 +46973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="760" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -45944,7 +47032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="761" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -46003,7 +47091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="762" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -46062,7 +47150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="763" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -46121,7 +47209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="764" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -46180,7 +47268,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="765" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -46239,7 +47327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="766" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -46298,7 +47386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="767" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -46357,7 +47445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="768" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -46416,7 +47504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="769" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -46475,7 +47563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="770" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -46534,7 +47622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="771" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -46593,7 +47681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="772" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -46652,7 +47740,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="773" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -46711,7 +47799,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="774" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -46770,7 +47858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="775" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -46829,7 +47917,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="776" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -46888,7 +47976,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="777" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -46947,7 +48035,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="778" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -47006,7 +48094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="779" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -47065,7 +48153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="780" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -47124,7 +48212,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="781" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -47183,7 +48271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="782" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -47242,7 +48330,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="783" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -47301,7 +48389,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="784" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -47360,7 +48448,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="785" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -47419,7 +48507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="786" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -47478,7 +48566,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="787" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -47537,7 +48625,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="788" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -47596,7 +48684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="789" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -47655,7 +48743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="790" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -47714,7 +48802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="791" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -47773,7 +48861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="792" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -47832,7 +48920,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="793" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -47891,7 +48979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="794" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -47950,7 +49038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="795" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -48009,7 +49097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="796" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="796" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -48068,7 +49156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="797" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="797" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -48127,7 +49215,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="798" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="798" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -48186,7 +49274,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="799" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -48245,7 +49333,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="800" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -48304,7 +49392,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="801" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="801" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -48363,7 +49451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="802" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="802" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -48422,7 +49510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="803" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -48481,7 +49569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="804" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -48540,7 +49628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="805" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="805" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -48599,7 +49687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="806" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -48658,7 +49746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="807" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -48717,7 +49805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="808" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -48776,7 +49864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="809" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -48835,7 +49923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="810" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="810" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -48894,7 +49982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="811" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="811" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -48953,7 +50041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="812" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -49012,7 +50100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="813" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="813" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -49071,7 +50159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="814" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="814" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -49130,7 +50218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="815" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="815" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -49189,7 +50277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="816" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="816" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -49248,7 +50336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="817" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="817" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -49307,7 +50395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="818" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="818" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -49366,7 +50454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="819" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="819" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -49425,7 +50513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="820" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="820" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -49484,7 +50572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="821" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="821" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -49543,7 +50631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="822" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="822" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -49602,7 +50690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="823" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="823" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -49661,7 +50749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="824" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="824" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -49720,7 +50808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="825" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="825" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -49779,7 +50867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="826" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="826" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -49838,7 +50926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="827" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="827" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -49897,7 +50985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="828" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="828" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -49956,7 +51044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="829" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="829" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -50015,7 +51103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="830" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="830" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -50074,7 +51162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="831" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="831" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -50133,7 +51221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="832" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="832" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -50192,7 +51280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="833" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="833" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -50251,7 +51339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="834" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="834" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -50310,7 +51398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="835" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="835" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -50369,7 +51457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="836" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="836" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -50428,7 +51516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="837" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="837" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -50487,7 +51575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="838" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="838" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -50546,7 +51634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="839" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="839" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -50605,7 +51693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="840" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="840" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -50664,7 +51752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="841" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="841" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -50723,7 +51811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="842" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="842" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -50782,7 +51870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="843" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="843" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -50841,7 +51929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="844" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="844" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -50900,7 +51988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="845" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="845" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -50959,7 +52047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="846" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="846" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -51018,7 +52106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="847" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="847" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -51077,7 +52165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="848" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="848" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -51136,7 +52224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="849" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="849" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -51195,7 +52283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="850" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="850" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -51254,7 +52342,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="851" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="851" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -51313,7 +52401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="852" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="852" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -51372,7 +52460,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="853" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="853" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -51431,7 +52519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="854" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="854" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -51490,7 +52578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="855" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="855" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -51549,7 +52637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="856" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="856" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -51608,7 +52696,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="857" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="857" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -51667,7 +52755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="858" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="858" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -51726,7 +52814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="859" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="859" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -51785,7 +52873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="860" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="860" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -51844,7 +52932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="861" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="861" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -51903,7 +52991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="862" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="862" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -51962,7 +53050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="863" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="863" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -52021,7 +53109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="864" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="864" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -52080,7 +53168,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="865" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -52139,7 +53227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="866" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -52198,7 +53286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="867" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -52257,7 +53345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="868" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -52316,7 +53404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="869" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -52375,7 +53463,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="870" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -52434,7 +53522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="871" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -52493,7 +53581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="872" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -52552,7 +53640,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="873" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -52611,7 +53699,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="874" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -52670,7 +53758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="875" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -52729,7 +53817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="876" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -52788,7 +53876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="877" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -52847,7 +53935,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="878" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -52906,7 +53994,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="879" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -52965,7 +54053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="880" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -53024,7 +54112,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="881" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="881" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -53083,7 +54171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="882" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="882" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -53142,7 +54230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="883" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="883" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -53201,7 +54289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="884" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="884" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -53260,7 +54348,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="885" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="885" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -53319,7 +54407,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="886" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="886" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -53378,7 +54466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="887" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="887" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -53437,7 +54525,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="888" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="888" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -53496,7 +54584,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="889" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="889" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -53555,7 +54643,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="890" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="890" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -53614,7 +54702,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="891" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="891" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -53673,7 +54761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="892" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="892" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -53732,7 +54820,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="893" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="893" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -53791,7 +54879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="894" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="894" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -53850,7 +54938,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="895" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="895" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -53909,7 +54997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="896" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="896" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -53968,7 +55056,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="897" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="897" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -54027,7 +55115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="898" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="898" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -54086,7 +55174,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="899" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="899" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -54145,7 +55233,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="900" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="900" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -54204,7 +55292,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="901" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="901" spans="1:19" hidden="1" x14ac:dyDescent="0.75">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -54264,7 +55352,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S901" xr:uid="{D3A76D7C-C1BB-4F61-851F-FB4D1D6146CC}"/>
+  <autoFilter ref="A1:S901" xr:uid="{D3A76D7C-C1BB-4F61-851F-FB4D1D6146CC}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="0.4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -54273,8 +55367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E6F73D-C39E-452C-97C8-C58354A6AEDC}">
   <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -54449,4 +55543,333 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAF8917-D6A4-4AF2-A1B7-7EBC6A86DE85}">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="39.6796875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8" style="15" customWidth="1"/>
+    <col min="3" max="3" width="47.58984375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="10.1796875" style="1" customWidth="1"/>
+    <col min="9" max="20" width="8.7265625" style="1"/>
+    <col min="21" max="16384" width="8.7265625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="B2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <f>COUNT(frames)</f>
+        <v>900</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1">
+        <f>AVERAGE(frames)</f>
+        <v>453.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <f>COUNTIF(frames,"&gt;400")</f>
+        <v>497</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1">
+        <f>AVERAGEIF(frames,"&gt;400")</f>
+        <v>731.65392354124754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="7">
+        <f xml:space="preserve"> COUNTIFS(frames,"&gt;400",frames,"&lt;900")</f>
+        <v>394</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1">
+        <f>AVERAGEIFS(frames,frames,"&gt;400",frames,"&lt;900")</f>
+        <v>642.82741116751265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1">
+        <f xml:space="preserve"> COUNTIFS(frames,"&gt;400",frames,"&lt;900", vac_p,"=0.4")</f>
+        <v>77</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1">
+        <f>AVERAGEIFS(frames,frames,"&gt;400",frames,"&lt;900",vac_p,"=0.4")</f>
+        <v>657.37662337662334</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G7" s="12"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G8" s="12"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="C13" s="7"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAF6245-7786-4D25-99CF-1F6435461CC4}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="48.5" x14ac:dyDescent="0.75">
+      <c r="A3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="1">
+        <f>AVERAGEIF(vac_p,A4,t_inf)</f>
+        <v>256.64999999999998</v>
+      </c>
+      <c r="C4" s="14">
+        <f>B4/$C$1</f>
+        <v>0.25664999999999999</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="1">
+        <f>AVERAGEIF(vac_p,A5,t_inf)</f>
+        <v>253.39</v>
+      </c>
+      <c r="C5" s="14">
+        <f t="shared" ref="C5:C12" si="0">B5/$C$1</f>
+        <v>0.25339</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="1">
+        <f>AVERAGEIF(vac_p,A6,t_inf)</f>
+        <v>241.92</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.24192</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="1">
+        <f>AVERAGEIF(vac_p,A7,t_inf)</f>
+        <v>232.38</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23238</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="1">
+        <f>AVERAGEIF(vac_p,A8,t_inf)</f>
+        <v>192.74</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.19274000000000002</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="1">
+        <f>AVERAGEIF(vac_p,A9,t_inf)</f>
+        <v>105.12</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10512000000000001</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="1">
+        <f>AVERAGEIF(vac_p,A10,t_inf)</f>
+        <v>13.24</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>1.324E-2</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="1">
+        <f>AVERAGEIF(vac_p,A11,t_inf)</f>
+        <v>2.46</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="B12" s="1">
+        <f>AVERAGEIF(vac_p,A12,t_inf)</f>
+        <v>1.73</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="0"/>
+        <v>1.73E-3</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>